--- a/others/technical_model.xlsx
+++ b/others/technical_model.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\github_repos\eosio_gpkbattles_contracts\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAED63C8-5A9D-4A75-9F8E-4F9828F50EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1035DD91-B889-4447-9811-9AE2D5701979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B321B5-5BEE-4078-AE8A-52D7F3C52A7D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pairing players" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>p1</t>
   </si>
@@ -62,6 +62,30 @@
   <si>
     <t>From the front-end, the pairing happens one at a time. 
 And the players are in sequence by account name as the request happened at same time. Now, the player paired with previously are removed from this another pairing queue.</t>
+  </si>
+  <si>
+    <t>simpleassets</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>paired player</t>
+  </si>
+  <si>
+    <t>Front-end for dApp</t>
+  </si>
+  <si>
+    <t>step-1</t>
+  </si>
+  <si>
+    <t>step-2</t>
+  </si>
+  <si>
+    <t>step-3</t>
   </si>
 </sst>
 </file>
@@ -93,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -116,11 +140,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -136,6 +178,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,23 +514,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90886E38-5485-44E7-BB46-2592C659815B}">
-  <dimension ref="A3:H14"/>
+  <dimension ref="A3:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
@@ -482,72 +550,261 @@
       <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D5" s="8"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="N7:O13"/>
+    <mergeCell ref="P7:Q13"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
